--- a/SOLID.xlsx
+++ b/SOLID.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\0-SDE-Preperation\LLD-Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99CFD6A-C090-4FE6-9B97-1A066AF3D80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA88017-7F5A-4404-A919-32A7B5D96849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="277">
   <si>
     <t>SOLID Introduction</t>
   </si>
@@ -251,9 +251,6 @@
     <t>We should not enforce clients to implement interfaces that they don't use. Instead of creating one big interface we can break down it to smaller interfaces</t>
   </si>
   <si>
-    <t>Dependency Inversion Principle</t>
-  </si>
-  <si>
     <t>One should “depend upon abstractions, [not] concretions"</t>
   </si>
   <si>
@@ -6040,6 +6037,4167 @@
         <family val="2"/>
       </rPr>
       <t> : IRepositoryLayer</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>interface</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IEmployee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>getMinimumSalary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>interface</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IEmployeeBonus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>calculateBonus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>salary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>abstract</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Employee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>implements</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IEmployee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IEmployeeBonus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>constructor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>  }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>abstract</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>calculateBonus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>salary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>abstract</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>getMinimumSalary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>toString</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">`ID : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>${this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Name : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>${this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>PermanentEmployee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>extends</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Employee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>super</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>calculateBonus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>salary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>salary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>getMinimumSalary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>15000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TemporaryEmployee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>extends</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Employee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>salary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ContractEmployee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>implements</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IEmployee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>main</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>() {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>employees</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Employee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">[] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> [];</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>employees</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>push</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>PermanentEmployee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"John"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>));</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>employees</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>push</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TemporaryEmployee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Jason"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>));</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>// Uncommenting the following line will cause an error</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>// employees.push(new ContractEmployee(3, "Mike"));</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>employee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>employees</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">`Employee </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>employee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>toString</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Bonus: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>employee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>calculateBonus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>100000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> MinSalary: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>employee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>getMinimumSalary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>employeesOnly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IEmployee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">[] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> [];</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>employeesOnly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>push</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>PermanentEmployee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"John"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>));</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>employeesOnly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>push</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TemporaryEmployee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Jason"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>));</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>employeesOnly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>push</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ContractEmployee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Mike"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>));</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>let</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>employee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>employeesOnly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">`Employee </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>employee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>toString</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> MinSalary: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>employee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>getMinimumSalary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>main</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <t>Dependency Inversion Principle (aggregation  over composition)</t>
+  </si>
+  <si>
+    <r>
+      <t>interface</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IDAL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>save</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>void</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DynamoDAL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>implements</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IDAL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>save</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'saving to dynamo...'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>    }</t>
+  </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>CosmosDAL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>implements</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IDAL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>console</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'saving to cosmos...'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>//Composition association</t>
+  </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>BusinessLayer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>dal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IDAL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>constructor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>dal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DynamoDAL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>dal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>save</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>();</t>
+    </r>
+  </si>
+  <si>
+    <t>//Aggregation association</t>
+  </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>BusinessLayerDIP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>constructor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>dal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>IDAL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>){</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>dal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>dal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>BusinessLayer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>().</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>save</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>BusinessLayerDIP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DynamoDAL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>save</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
     </r>
   </si>
 </sst>
@@ -6047,7 +10205,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6113,8 +10271,68 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF569CD6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4EC9B0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFDCDCAA"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC586C0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFB5CEA8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6A9955"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6130,6 +10348,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6183,7 +10419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6250,8 +10486,35 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6535,7 +10798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:B28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -6598,68 +10861,68 @@
     <row r="14" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -6671,7 +10934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025EE3DA-9CDB-4AD1-9312-23E0F609626C}">
   <dimension ref="B1:B48"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
@@ -6698,32 +10961,32 @@
     <row r="4" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
@@ -6731,88 +10994,88 @@
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
@@ -6820,62 +11083,62 @@
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
@@ -6883,27 +11146,27 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -6915,7 +11178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0763F1B7-78B5-49D3-897F-CCD118C1F4D8}">
   <dimension ref="B1:B141"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A118" workbookViewId="0">
       <selection activeCell="B61" sqref="B61:B141"/>
     </sheetView>
   </sheetViews>
@@ -6947,32 +11210,32 @@
     <row r="5" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
@@ -6980,57 +11243,57 @@
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
@@ -7038,17 +11301,17 @@
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
@@ -7056,47 +11319,47 @@
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
@@ -7104,27 +11367,27 @@
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
@@ -7132,108 +11395,108 @@
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
@@ -7241,107 +11504,107 @@
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
@@ -7349,22 +11612,22 @@
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.25">
@@ -7372,37 +11635,37 @@
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.25">
@@ -7410,22 +11673,22 @@
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.25">
@@ -7433,42 +11696,42 @@
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.25">
@@ -7476,27 +11739,27 @@
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.25">
@@ -7504,97 +11767,97 @@
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B128" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B129" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B130" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B131" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B132" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B133" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B134" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B135" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B136" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B138" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B139" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B140" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="141" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B141" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -7604,10 +11867,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED84F450-44CD-4441-A424-7CC7E51EBEAE}">
-  <dimension ref="B1:B310"/>
+  <dimension ref="B1:B409"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="D111" sqref="D111"/>
+    <sheetView topLeftCell="A385" workbookViewId="0">
+      <selection activeCell="D399" sqref="D399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7638,7 +11901,7 @@
     <row r="6" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
@@ -7646,27 +11909,27 @@
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
@@ -7674,52 +11937,52 @@
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
@@ -7727,22 +11990,22 @@
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
@@ -7750,37 +12013,37 @@
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
@@ -7788,22 +12051,22 @@
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
@@ -7811,37 +12074,37 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
@@ -7849,22 +12112,22 @@
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
@@ -7872,37 +12135,37 @@
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
@@ -7910,22 +12173,22 @@
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
@@ -7933,42 +12196,42 @@
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
@@ -7976,27 +12239,27 @@
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
@@ -8004,92 +12267,92 @@
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.25">
@@ -8097,22 +12360,22 @@
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.25">
@@ -8120,13 +12383,13 @@
     </row>
     <row r="109" spans="2:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B109" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="111" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B111" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.25">
@@ -8134,27 +12397,27 @@
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.25">
@@ -8162,47 +12425,47 @@
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.25">
@@ -8210,27 +12473,27 @@
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B129" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B130" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B131" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B132" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B133" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.25">
@@ -8238,37 +12501,37 @@
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B135" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B136" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B138" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B139" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B140" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B141" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.25">
@@ -8276,52 +12539,52 @@
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B145" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B146" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B148" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B149" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B150" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B151" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B152" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.25">
@@ -8329,7 +12592,7 @@
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B154" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.25">
@@ -8337,12 +12600,12 @@
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B156" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B157" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.25">
@@ -8350,22 +12613,22 @@
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B159" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B160" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B161" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B162" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.25">
@@ -8373,7 +12636,7 @@
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B164" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.25">
@@ -8381,7 +12644,7 @@
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B166" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.25">
@@ -8389,22 +12652,22 @@
     </row>
     <row r="168" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B168" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="169" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B169" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B170" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="171" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B171" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="172" spans="2:2" x14ac:dyDescent="0.25">
@@ -8412,17 +12675,17 @@
     </row>
     <row r="173" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B173" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="174" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B174" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="175" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B175" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="176" spans="2:2" x14ac:dyDescent="0.25">
@@ -8430,27 +12693,27 @@
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B177" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="178" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B178" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="179" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B179" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="180" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B180" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B181" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.25">
@@ -8458,32 +12721,32 @@
     </row>
     <row r="183" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B183" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B184" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="185" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B185" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="186" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B186" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="187" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B187" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="188" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B188" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="189" spans="2:2" x14ac:dyDescent="0.25">
@@ -8491,12 +12754,12 @@
     </row>
     <row r="190" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B190" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="191" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B191" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="192" spans="2:2" x14ac:dyDescent="0.25">
@@ -8504,22 +12767,22 @@
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B193" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B194" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B195" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B196" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.25">
@@ -8527,32 +12790,32 @@
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B198" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B199" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B200" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="201" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B201" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B202" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="203" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B203" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="204" spans="2:2" x14ac:dyDescent="0.25">
@@ -8560,27 +12823,27 @@
     </row>
     <row r="205" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B205" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="206" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B206" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="207" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B207" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="208" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B208" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B209" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.25">
@@ -8588,32 +12851,32 @@
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B211" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B212" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B213" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B214" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B215" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B216" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.25">
@@ -8621,12 +12884,12 @@
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B218" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B219" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="220" spans="2:2" x14ac:dyDescent="0.25">
@@ -8634,22 +12897,22 @@
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B221" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B222" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="223" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B223" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B224" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.25">
@@ -8657,32 +12920,32 @@
     </row>
     <row r="226" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B226" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B227" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="228" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B228" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="229" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B229" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="230" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B230" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="231" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B231" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="232" spans="2:2" x14ac:dyDescent="0.25">
@@ -8690,27 +12953,27 @@
     </row>
     <row r="233" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B233" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="234" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B234" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="235" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B235" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="236" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B236" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="237" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B237" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="238" spans="2:2" x14ac:dyDescent="0.25">
@@ -8718,27 +12981,27 @@
     </row>
     <row r="239" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B239" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="240" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B240" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="241" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B241" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="242" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B242" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="243" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B243" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="244" spans="2:2" x14ac:dyDescent="0.25">
@@ -8746,17 +13009,17 @@
     </row>
     <row r="245" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B245" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="246" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B246" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="247" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B247" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="248" spans="2:2" x14ac:dyDescent="0.25">
@@ -8764,27 +13027,27 @@
     </row>
     <row r="249" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B249" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="250" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B250" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="251" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B251" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="252" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B252" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="253" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B253" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="254" spans="2:2" x14ac:dyDescent="0.25">
@@ -8792,22 +13055,22 @@
     </row>
     <row r="255" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B255" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="256" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B256" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B257" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="258" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B258" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="259" spans="2:2" x14ac:dyDescent="0.25">
@@ -8815,32 +13078,32 @@
     </row>
     <row r="260" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B260" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="261" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B261" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="262" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B262" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="263" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B263" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="264" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B264" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="265" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B265" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="266" spans="2:2" x14ac:dyDescent="0.25">
@@ -8848,32 +13111,32 @@
     </row>
     <row r="267" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B267" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="268" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B268" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="269" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B269" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="270" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B270" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="271" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B271" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="272" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B272" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="273" spans="2:2" x14ac:dyDescent="0.25">
@@ -8881,92 +13144,92 @@
     </row>
     <row r="274" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B274" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="275" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B275" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="276" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B276" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="277" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B277" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="278" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B278" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="279" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B279" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="280" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B280" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="281" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B281" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="282" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B282" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="283" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B283" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="284" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B284" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="285" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B285" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="286" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B286" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="287" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B287" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="288" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B288" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="289" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B289" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="290" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B290" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="291" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B291" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="292" spans="2:2" x14ac:dyDescent="0.25">
@@ -8974,7 +13237,7 @@
     </row>
     <row r="293" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B293" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="294" spans="2:2" x14ac:dyDescent="0.25">
@@ -8982,7 +13245,7 @@
     </row>
     <row r="295" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B295" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="296" spans="2:2" x14ac:dyDescent="0.25">
@@ -8990,17 +13253,17 @@
     </row>
     <row r="297" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B297" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="298" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B298" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="299" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B299" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="300" spans="2:2" x14ac:dyDescent="0.25">
@@ -9008,56 +13271,503 @@
     </row>
     <row r="301" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B301" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="302" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B302" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="303" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B303" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="304" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B304" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="305" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B305" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="306" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B306" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="307" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B307" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="308" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B308" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="309" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B309" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="310" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B310" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B312" s="26" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B313" s="27" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B314" s="27" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="315" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B315" s="27" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B316" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="317" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B317" s="28"/>
+    </row>
+    <row r="318" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B318" s="26" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="319" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B319" s="27" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="320" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B320" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="321" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B321" s="28"/>
+    </row>
+    <row r="322" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B322" s="26" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="323" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B323" s="27" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="324" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B324" s="27" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="325" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B325" s="28"/>
+    </row>
+    <row r="326" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B326" s="27" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="327" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B327" s="27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="328" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B328" s="27" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="329" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B329" s="27" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="330" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B330" s="28"/>
+    </row>
+    <row r="331" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B331" s="27" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="332" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B332" s="27" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="333" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B333" s="28"/>
+    </row>
+    <row r="334" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B334" s="27" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="335" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B335" s="27" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="336" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B336" s="27" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="337" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B337" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="338" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B338" s="28"/>
+    </row>
+    <row r="339" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B339" s="26" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="340" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B340" s="27" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="341" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B341" s="27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="342" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B342" s="27" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="343" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B343" s="28"/>
+    </row>
+    <row r="344" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B344" s="27" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="345" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B345" s="27" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="346" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B346" s="27" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B347" s="28"/>
+    </row>
+    <row r="348" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B348" s="27" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="349" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B349" s="27" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="350" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B350" s="27" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="351" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B351" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="352" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B352" s="28"/>
+    </row>
+    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B353" s="26" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="354" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B354" s="27" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="355" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B355" s="27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="356" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B356" s="27" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="357" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B357" s="28"/>
+    </row>
+    <row r="358" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B358" s="27" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="359" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B359" s="27" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="360" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B360" s="27" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="361" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B361" s="28"/>
+    </row>
+    <row r="362" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B362" s="27" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="363" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B363" s="27" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="364" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B364" s="27" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="365" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B365" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="366" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B366" s="28"/>
+    </row>
+    <row r="367" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B367" s="26" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="368" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B368" s="27" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="369" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B369" s="27" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="370" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B370" s="28"/>
+    </row>
+    <row r="371" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B371" s="27" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="372" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B372" s="27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="373" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B373" s="27" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="374" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B374" s="27" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="375" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B375" s="28"/>
+    </row>
+    <row r="376" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B376" s="27" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="377" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B377" s="27" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="378" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B378" s="27" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="379" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B379" s="28"/>
+    </row>
+    <row r="380" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B380" s="27" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="381" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B381" s="27" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="382" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B382" s="27" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="383" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B383" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="384" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B384" s="28"/>
+    </row>
+    <row r="385" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B385" s="26" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="386" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B386" s="30" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="387" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B387" s="30" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="388" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B388" s="30" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="389" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B389" s="31"/>
+    </row>
+    <row r="390" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B390" s="30" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="391" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B391" s="30" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="392" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B392" s="31"/>
+    </row>
+    <row r="393" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B393" s="30" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="394" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B394" s="30" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="395" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B395" s="30" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="396" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B396" s="28"/>
+    </row>
+    <row r="397" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B397" s="27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="398" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B398" s="28"/>
+    </row>
+    <row r="399" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B399" s="30" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="400" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B400" s="30" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="401" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B401" s="30" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="402" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B402" s="30" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="403" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B403" s="31"/>
+    </row>
+    <row r="404" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B404" s="30" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="405" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B405" s="30" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="406" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B406" s="30" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="407" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B407" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="408" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B408" s="28"/>
+    </row>
+    <row r="409" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B409" s="29" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9065,7 +13775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06C45ED-371E-4B07-82A8-19611731BB41}">
   <dimension ref="B1:B143"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A97" workbookViewId="0">
       <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
@@ -9092,7 +13802,7 @@
     <row r="5" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
@@ -9100,57 +13810,57 @@
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
@@ -9158,132 +13868,132 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
@@ -9291,138 +14001,138 @@
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.25">
@@ -9430,42 +14140,42 @@
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
@@ -9473,22 +14183,22 @@
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
@@ -9496,27 +14206,27 @@
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.25">
@@ -9524,132 +14234,132 @@
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.25">
@@ -9657,107 +14367,107 @@
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B128" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B129" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B130" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B131" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B132" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B133" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B134" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B135" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B136" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B138" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B139" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B140" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B141" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B142" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="143" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B143" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -9767,10 +14477,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0125AD4-1C39-4A26-B23F-3B8F35FEE5EA}">
-  <dimension ref="B1:B68"/>
+  <dimension ref="B1:B111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9780,28 +14490,28 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
-        <v>23</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
@@ -9809,28 +14519,28 @@
     </row>
     <row r="8" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
@@ -9838,22 +14548,22 @@
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
@@ -9861,27 +14571,27 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
@@ -9889,58 +14599,58 @@
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="26" t="s">
-        <v>208</v>
+      <c r="B34" s="18" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
@@ -9948,22 +14658,22 @@
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
@@ -9971,27 +14681,27 @@
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
@@ -9999,22 +14709,22 @@
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
@@ -10022,75 +14732,272 @@
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B57" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B58" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B59" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B60" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B61" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B62" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B63" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B64" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="32" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="33" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="34"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="32" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="33" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="33" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="33" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="34"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="32" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="33" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="33" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="33" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="34"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="35" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="32" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="33" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="33" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="33" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" s="33" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="34"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="33" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="33" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="33" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="34"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="35" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" s="32" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" s="33" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" s="33" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102" s="33" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103" s="33" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104" s="34"/>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105" s="33" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106" s="33" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107" s="33" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108" s="33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109" s="32" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110" s="34"/>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111" s="32" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>